--- a/biology/Médecine/1591_en_santé_et_médecine/1591_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1591_en_santé_et_médecine/1591_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1591_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1591_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1591 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1591_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1591_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jean Bauhin publie à Montbéliard son Histoire notable de la rage des loups survenue en l'an 1590, premier ouvrage en français sur cette maladie[1].
-Le médecin alchimiste Roch Le Baillif (1540-1598) publie un Traité de la cause de la brève vie de plusieurs princes et grands[2].
-Prospero Alpini publie à Venise son De balsamo dialogus[3].
-Juan de Cárdenas (es) (1563-1609), médecin et savant espagnol, établi à Guadalajara, au Mexique, à partir de 1577[4],[5], publie la Primera parte de los problemas y secretos maravillosos de las Indias[6] (« Première partie des problèmes et secrets merveilleux des Indiens »).
-Le médecin italien Battista Condrochi publie à Ferrare son traité sur « la façon consciencieuse et chrétienne de guérir » (De christiana ac tuta medendi ratione), ouvrage dont « on discute encore » au XVIIe siècle[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jean Bauhin publie à Montbéliard son Histoire notable de la rage des loups survenue en l'an 1590, premier ouvrage en français sur cette maladie.
+Le médecin alchimiste Roch Le Baillif (1540-1598) publie un Traité de la cause de la brève vie de plusieurs princes et grands.
+Prospero Alpini publie à Venise son De balsamo dialogus.
+Juan de Cárdenas (es) (1563-1609), médecin et savant espagnol, établi à Guadalajara, au Mexique, à partir de 1577 publie la Primera parte de los problemas y secretos maravillosos de las Indias (« Première partie des problèmes et secrets merveilleux des Indiens »).
+Le médecin italien Battista Condrochi publie à Ferrare son traité sur « la façon consciencieuse et chrétienne de guérir » (De christiana ac tuta medendi ratione), ouvrage dont « on discute encore » au XVIIe siècle.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1591_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1591_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>16 juin : Joseph Delmedigo (mort en 1655), médecin, kabbaliste, philosophe, mathématicien et astronome[8].
-12 août : Louise de Marillac (morte en 1660), aristocrate française, fondatrice avec saint Vincent de Paul des Filles de la Charité[9],[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>16 juin : Joseph Delmedigo (mort en 1655), médecin, kabbaliste, philosophe, mathématicien et astronome.
+12 août : Louise de Marillac (morte en 1660), aristocrate française, fondatrice avec saint Vincent de Paul des Filles de la Charité,.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1591_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1591_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>18 août : Simon Séguin (né à une date inconnue), docteur en médecine, aïeul de Pierre Séguin (1594-1630), professeur de chirurgie et de médecine[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>18 août : Simon Séguin (né à une date inconnue), docteur en médecine, aïeul de Pierre Séguin (1594-1630), professeur de chirurgie et de médecine.</t>
         </is>
       </c>
     </row>
